--- a/8.Import/3.Excel/Copy of data_firmware.xlsx
+++ b/8.Import/3.Excel/Copy of data_firmware.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Qlik QDF Lab\10.Sandbox\1.Rinats_Sabirovs\8.Import\3.Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C6005E27-B6F8-4874-8F41-042B79B55821}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B3E32CF4-7803-4847-BBDD-2CA3D3664833}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1200" windowWidth="24720" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,24 +460,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>43105</v>
+        <v>43128</v>
       </c>
       <c r="B3" s="4">
         <v>1234</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>43128</v>
+        <v>43105</v>
       </c>
       <c r="B4" s="4">
         <v>1234</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -512,9 +512,6 @@
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
